--- a/FME_fmw_files/LOOKUP_TABLES/AB_DefaultAttributeMapper.xlsx
+++ b/FME_fmw_files/LOOKUP_TABLES/AB_DefaultAttributeMapper.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robennet\Documents\GitHub\fgp-metadata-proxy\FME_fmw_files\LOOKUP_TABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="5610"/>
   </bookViews>
   <sheets>
-    <sheet name="BC_DEFAULT_ATTRIBUTES" sheetId="1" r:id="rId1"/>
+    <sheet name="AB_DEFAULT_ATTRIBUTES" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>p-t_entity</t>
   </si>
@@ -66,6 +66,60 @@
   </si>
   <si>
     <t>Licence du gouvernement ouvert - Alberta (https://open.alberta.ca/licence)</t>
+  </si>
+  <si>
+    <t>default_role_value</t>
+  </si>
+  <si>
+    <t>pointOfContact</t>
+  </si>
+  <si>
+    <t>default_spatial_value</t>
+  </si>
+  <si>
+    <t>default_progress_value</t>
+  </si>
+  <si>
+    <t>default_reference_code_value</t>
+  </si>
+  <si>
+    <t>default_reference_space_value</t>
+  </si>
+  <si>
+    <t>default_topic_value</t>
+  </si>
+  <si>
+    <t>default_tag_value</t>
+  </si>
+  <si>
+    <t>Alberta Data</t>
+  </si>
+  <si>
+    <t>EPSG: 3400</t>
+  </si>
+  <si>
+    <t>EPSG</t>
+  </si>
+  <si>
+    <t>default_reference_version_value</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>geoscientificInformation</t>
+  </si>
+  <si>
+    <t>onGoing</t>
+  </si>
+  <si>
+    <t>default_update_value</t>
+  </si>
+  <si>
+    <t>asNeeded</t>
   </si>
 </sst>
 </file>
@@ -383,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,6 +505,78 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
